--- a/Publication/Outputs/Tables/T1.xlsx
+++ b/Publication/Outputs/Tables/T1.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
     <t xml:space="preserve">Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary (N = 1197)</t>
   </si>
   <si>
     <t xml:space="preserve">Demographics</t>
@@ -641,457 +644,518 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
         <v>12</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
         <v>14</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
         <v>16</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
       <c r="B10"/>
+      <c r="C10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
         <v>19</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
         <v>21</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
         <v>23</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
         <v>26</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
         <v>28</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
         <v>30</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
         <v>32</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
         <v>34</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
         <v>36</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
         <v>38</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
         <v>40</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
         <v>43</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
         <v>45</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
         <v>47</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
         <v>49</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" t="s">
         <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
         <v>52</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31"/>
+      <c r="C31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
         <v>55</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
         <v>57</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" t="s">
         <v>59</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
         <v>61</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" t="s">
         <v>63</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
         <v>65</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
         <v>67</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" t="s">
         <v>75</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
         <v>77</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" t="s">
         <v>80</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" t="s">
         <v>82</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
         <v>84</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52"/>
       <c r="B52"/>
+      <c r="C52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" t="s">
         <v>88</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s">
         <v>90</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" t="s">
         <v>92</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" t="s">
         <v>94</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" t="s">
         <v>96</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
